--- a/biology/Zoologie/Diaethria_clymena/Diaethria_clymena.xlsx
+++ b/biology/Zoologie/Diaethria_clymena/Diaethria_clymena.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Diaethria clymena, le Double 8, est une espèce de lépidoptères (papillons) de la famille des Nymphalidae, de la sous-famille des Biblidinae et du genre Diaethria.
 </t>
@@ -511,90 +523,97 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Diaethria clymena a été décrit par l'entomologiste hollandais Pieter Cramer en 1775 sous le nom initial de Papilio clymena[1].
-Noms vernaculaires
-Diaethria clymena se nomme Double 8 en français et Cramer's Eighty-eight en anglais[2],[3].
-Sous-espèces
-Diaethria clymena clymena; présent en Guyana, en Guyane et au Brésil.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Diaethria clymena a été décrit par l'entomologiste hollandais Pieter Cramer en 1775 sous le nom initial de Papilio clymena.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Diaethria_clymena</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Diaethria_clymena</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Diaethria clymena se nomme Double 8 en français et Cramer's Eighty-eight en anglais,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Diaethria_clymena</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Diaethria_clymena</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Diaethria clymena clymena; présent en Guyana, en Guyane et au Brésil.
 Diaethria clymena aurelia (Guenée, 1872); présent en Équateur, en Bolivie et au Pérou.
 Diaethria clymena beleses (Godman &amp; Salvin, 1889); présent à Panama.
 Diaethria clymena bourcieri (Guenée, 1872); présent en Équateur
 Diaethria clymena colombiana (Viette, 1958); présent en Colombie.
-Diaethria clymena consobrina (Guérin-Méneville, [1844]); présent au Venezuela et en Colombie.
+Diaethria clymena consobrina (Guérin-Méneville, ); présent au Venezuela et en Colombie.
 Diaethria clymena dodone (Guenée, 1872); présent en Colombie.
 Diaethria clymena janeira (C. Felder, 1862); présent au Brésil et au Paraguay.
 Diaethria clymena juani Neild, 1996; présent au Venezuela.
-Diaethria clymena marchalii (Guérin-Méneville, [1844]); présent au Nicaragua et en Colombie.
+Diaethria clymena marchalii (Guérin-Méneville, ); présent au Nicaragua et en Colombie.
 Diaethria clymena meridionalis (Bates, 1864); présent au Brésil.
 Diaethria clymena peruviana (Guenée, 1872); présent en Équateur, en Bolivie et au Pérou.
-Diaethria clymena seropina (Röber, 1924); présent au Brésil[1].</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Diaethria_clymena</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Diaethria_clymena</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dynamine clymena, d'une envergure entre 38 mm et 50 mm présente un dessus de couleur noire barré de bleu de la moitié du bord costal à l'angle externe des ailes antérieures et avec une bande submarginale aux ailes postérieures[2],[3],[4].
-Le revers des ailes antérieures est rouge avec une large bande noire rayée de blanc au bord externe. Les ailes postérieures blanches ornées de lignes et dessins noirs en forme de 8 d'où son nom commun de Double 88.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Diaethria_clymena</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Diaethria_clymena</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dynamine clymena vole de mars à novembre en Amérique du Sud, de février à juillet en Floride.
-Plantes hôtes
-Les plantes hôtes de sa chenille sont des  Trema Trema lamarckianum et Trema micranthum (Ulmaceae ) et des Theobroma (Sterculiaceae)[1],[2].
-</t>
+Diaethria clymena seropina (Röber, 1924); présent au Brésil.</t>
         </is>
       </c>
     </row>
@@ -619,16 +638,15 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Écologie et distribution</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dynamine clymena est présent dans l’extrême sud de la Floride, au Mexique, à Panama,  au Nicaragua, au Venezuela, en Colombie, en Équateur, en Bolivie, au Brésil, au Paraguay au Pérou, en Guyana et en Guyane[1],[3],.
-Biotope
-Diaethria clymena réside en forêt humide tropicale[3].
-Protection
-Pas de statut de protection particulier.
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dynamine clymena, d'une envergure entre 38 mm et 50 mm présente un dessus de couleur noire barré de bleu de la moitié du bord costal à l'angle externe des ailes antérieures et avec une bande submarginale aux ailes postérieures.
+Le revers des ailes antérieures est rouge avec une large bande noire rayée de blanc au bord externe. Les ailes postérieures blanches ornées de lignes et dessins noirs en forme de 8 d'où son nom commun de Double 88.
 </t>
         </is>
       </c>
@@ -654,10 +672,189 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dynamine clymena vole de mars à novembre en Amérique du Sud, de février à juillet en Floride.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Diaethria_clymena</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Diaethria_clymena</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont des  Trema Trema lamarckianum et Trema micranthum (Ulmaceae ) et des Theobroma (Sterculiaceae),.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Diaethria_clymena</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Diaethria_clymena</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dynamine clymena est présent dans l’extrême sud de la Floride, au Mexique, à Panama,  au Nicaragua, au Venezuela, en Colombie, en Équateur, en Bolivie, au Brésil, au Paraguay au Pérou, en Guyana et en Guyane.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Diaethria_clymena</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Diaethria_clymena</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Diaethria clymena réside en forêt humide tropicale.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Diaethria_clymena</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Diaethria_clymena</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Diaethria_clymena</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Diaethria_clymena</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Philatélie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">La poste brésilienne a émis un timbre d'une valeur de 12,5 cruzeiro à son effigie en 1979.
 </t>
